--- a/pyMet/wbalcodes.xlsx
+++ b/pyMet/wbalcodes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="8145" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="header" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="152">
   <si>
     <t>Precipitation</t>
   </si>
@@ -477,6 +477,12 @@
   </si>
   <si>
     <t>location code &lt;&gt; 0</t>
+  </si>
+  <si>
+    <t>int,float</t>
+  </si>
+  <si>
+    <t>index,catchment_area</t>
   </si>
 </sst>
 </file>
@@ -816,7 +822,7 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1171,10 +1177,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,64 +1257,75 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>90</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>91</v>
       </c>
     </row>

--- a/pyMet/wbalcodes.xlsx
+++ b/pyMet/wbalcodes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mason\OneDrive\python\pkg\pyMet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sync\@dev\python\pkg\pyMet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="153">
   <si>
     <t>Precipitation</t>
   </si>
@@ -278,24 +278,9 @@
     <t>row,col,depth</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>float,float</t>
-  </si>
-  <si>
-    <t>float,float,float</t>
-  </si>
-  <si>
-    <t>coordinates</t>
-  </si>
-  <si>
     <t>coordinates + elevation</t>
   </si>
   <si>
-    <t>float,float,int</t>
-  </si>
-  <si>
     <t>coordinates + interval ID</t>
   </si>
   <si>
@@ -483,6 +468,24 @@
   </si>
   <si>
     <t>index,catchment_area</t>
+  </si>
+  <si>
+    <t>int,float,float</t>
+  </si>
+  <si>
+    <t>id,coordinates</t>
+  </si>
+  <si>
+    <t>used?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>int,float,float,float</t>
+  </si>
+  <si>
+    <t>int,float,float,int</t>
   </si>
 </sst>
 </file>
@@ -841,7 +844,7 @@
         <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>69</v>
@@ -858,10 +861,10 @@
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>67</v>
@@ -878,16 +881,16 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -895,19 +898,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -915,19 +918,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D5">
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -935,19 +938,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -955,19 +958,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
         <v>106</v>
-      </c>
-      <c r="B7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" t="s">
-        <v>111</v>
       </c>
       <c r="D7">
         <v>86400</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F7">
         <v>8</v>
@@ -975,16 +978,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -992,16 +995,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -1012,16 +1015,16 @@
         <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1032,16 +1035,16 @@
         <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D11">
         <v>26917</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -1049,19 +1052,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -1069,101 +1072,101 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C18" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1177,10 +1180,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,37 +1192,43 @@
     <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>73</v>
       </c>
       <c r="C1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1229,8 +1238,11 @@
       <c r="C4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1240,8 +1252,11 @@
       <c r="C5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1252,18 +1267,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1274,59 +1289,62 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="D10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +1533,7 @@
         <v>512</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -1532,7 +1550,7 @@
         <v>1024</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -1754,7 +1772,7 @@
         <v>8388608</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -1771,7 +1789,7 @@
         <v>16777216</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -1788,7 +1806,7 @@
         <v>33554432</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -1805,7 +1823,7 @@
         <v>67108864</v>
       </c>
       <c r="B27" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -1822,7 +1840,7 @@
         <v>134217728</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>

--- a/pyMet/wbalcodes.xlsx
+++ b/pyMet/wbalcodes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="155">
   <si>
     <t>Precipitation</t>
   </si>
@@ -284,12 +284,6 @@
     <t>coordinates + interval ID</t>
   </si>
   <si>
-    <t>float (x6)</t>
-  </si>
-  <si>
-    <t>vector</t>
-  </si>
-  <si>
     <t>given per value</t>
   </si>
   <si>
@@ -383,9 +377,6 @@
     <t>if location code &lt; 0</t>
   </si>
   <si>
-    <t xml:space="preserve">could be used to refer to a location table, for example -14 </t>
-  </si>
-  <si>
     <t>values</t>
   </si>
   <si>
@@ -486,6 +477,21 @@
   </si>
   <si>
     <t>int,float,float,int</t>
+  </si>
+  <si>
+    <t>int,float,float,float,float,float</t>
+  </si>
+  <si>
+    <t>could be used to refer to a location table, for example -12</t>
+  </si>
+  <si>
+    <t>coordinates + elevation + slope + aspect</t>
+  </si>
+  <si>
+    <t>int,float (x6)</t>
+  </si>
+  <si>
+    <t>vector / coordinates + elevation + slope + aspect + area</t>
   </si>
 </sst>
 </file>
@@ -844,7 +850,7 @@
         <v>63</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>69</v>
@@ -861,10 +867,10 @@
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>67</v>
@@ -881,16 +887,16 @@
         <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -898,19 +904,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -918,19 +924,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5">
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -938,19 +944,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -958,19 +964,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D7">
         <v>86400</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F7">
         <v>8</v>
@@ -978,16 +984,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -995,16 +1001,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -1015,16 +1021,16 @@
         <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1035,16 +1041,16 @@
         <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11">
         <v>26917</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -1052,19 +1058,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" t="s">
         <v>92</v>
       </c>
-      <c r="B12" t="s">
-        <v>94</v>
-      </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -1072,101 +1078,101 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" t="s">
         <v>96</v>
-      </c>
-      <c r="B13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1180,16 +1186,16 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1200,18 +1206,18 @@
         <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1219,13 +1225,13 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1239,7 +1245,7 @@
         <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1253,7 +1259,7 @@
         <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1272,10 +1278,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1294,10 +1300,10 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1305,13 +1311,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" t="s">
         <v>147</v>
-      </c>
-      <c r="C10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1319,7 +1325,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
         <v>83</v>
@@ -1330,7 +1336,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
         <v>84</v>
@@ -1338,13 +1344,27 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" t="s">
-        <v>86</v>
+      <c r="B14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1553,7 @@
         <v>512</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -1550,7 +1570,7 @@
         <v>1024</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -1772,7 +1792,7 @@
         <v>8388608</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
@@ -1789,7 +1809,7 @@
         <v>16777216</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -1806,7 +1826,7 @@
         <v>33554432</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -1823,7 +1843,7 @@
         <v>67108864</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -1840,7 +1860,7 @@
         <v>134217728</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
